--- a/Data/Transitions/19591971Translation.xlsx
+++ b/Data/Transitions/19591971Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="663">
   <si>
     <t>id</t>
   </si>
@@ -433,7 +433,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986, 738.0: 0.007169576059850374, 228.0: 0.007169576059850374}</t>
@@ -625,7 +625,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1703,9 +1703,6 @@
   </si>
   <si>
     <t>{235.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9947452593100297, 738.0: 0.003714175107252557, 228.0: 0.001540565582717742}</t>
@@ -3884,7 +3881,7 @@
         <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>563</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3895,7 +3892,7 @@
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3906,7 +3903,7 @@
         <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3961,7 +3958,7 @@
         <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4027,7 +4024,7 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4093,7 +4090,7 @@
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4137,7 +4134,7 @@
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4148,7 +4145,7 @@
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4192,7 +4189,7 @@
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4280,7 +4277,7 @@
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4291,7 +4288,7 @@
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4302,7 +4299,7 @@
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4313,7 +4310,7 @@
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4368,7 +4365,7 @@
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4390,7 +4387,7 @@
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4423,7 +4420,7 @@
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4445,7 +4442,7 @@
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4456,7 +4453,7 @@
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4467,7 +4464,7 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4533,7 +4530,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4588,7 +4585,7 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>563</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4632,7 +4629,7 @@
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4643,7 +4640,7 @@
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4665,7 +4662,7 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4720,7 +4717,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4786,7 +4783,7 @@
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4841,7 +4838,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4863,7 +4860,7 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4940,7 +4937,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4984,7 +4981,7 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5006,7 +5003,7 @@
         <v>241</v>
       </c>
       <c r="C240" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5072,7 +5069,7 @@
         <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5083,7 +5080,7 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5237,7 +5234,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5281,7 +5278,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5292,7 +5289,7 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5369,7 +5366,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5380,7 +5377,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5446,7 +5443,7 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5457,7 +5454,7 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5545,7 +5542,7 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5578,7 +5575,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5600,7 +5597,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5611,7 +5608,7 @@
         <v>296</v>
       </c>
       <c r="C295" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5633,7 +5630,7 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5655,7 +5652,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5677,7 +5674,7 @@
         <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5699,7 +5696,7 @@
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5754,7 +5751,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5897,7 +5894,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5908,7 +5905,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5952,7 +5949,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5974,7 +5971,7 @@
         <v>329</v>
       </c>
       <c r="C328" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -6073,7 +6070,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6095,7 +6092,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6150,7 +6147,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6172,7 +6169,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6271,7 +6268,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6282,7 +6279,7 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6293,7 +6290,7 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6304,7 +6301,7 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6392,7 +6389,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6414,7 +6411,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6458,7 +6455,7 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6469,7 +6466,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6513,7 +6510,7 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6579,7 +6576,7 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6590,7 +6587,7 @@
         <v>385</v>
       </c>
       <c r="C384" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6634,7 +6631,7 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6689,7 +6686,7 @@
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6733,7 +6730,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6997,7 +6994,7 @@
         <v>422</v>
       </c>
       <c r="C421" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -7052,7 +7049,7 @@
         <v>427</v>
       </c>
       <c r="C426" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7063,7 +7060,7 @@
         <v>428</v>
       </c>
       <c r="C427" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -7085,7 +7082,7 @@
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7118,7 +7115,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7129,7 +7126,7 @@
         <v>434</v>
       </c>
       <c r="C433" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7140,7 +7137,7 @@
         <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7151,7 +7148,7 @@
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7162,7 +7159,7 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7184,7 +7181,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7195,7 +7192,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7250,7 +7247,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7272,7 +7269,7 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7316,7 +7313,7 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7393,7 +7390,7 @@
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7437,7 +7434,7 @@
         <v>462</v>
       </c>
       <c r="C461" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -7448,7 +7445,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7459,7 +7456,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7514,7 +7511,7 @@
         <v>469</v>
       </c>
       <c r="C468" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7525,7 +7522,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7547,7 +7544,7 @@
         <v>472</v>
       </c>
       <c r="C471" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7569,7 +7566,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7690,7 +7687,7 @@
         <v>485</v>
       </c>
       <c r="C484" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -7756,7 +7753,7 @@
         <v>491</v>
       </c>
       <c r="C490" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -7844,7 +7841,7 @@
         <v>499</v>
       </c>
       <c r="C498" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -7866,7 +7863,7 @@
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7888,7 +7885,7 @@
         <v>503</v>
       </c>
       <c r="C502" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -7899,7 +7896,7 @@
         <v>504</v>
       </c>
       <c r="C503" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -7921,7 +7918,7 @@
         <v>506</v>
       </c>
       <c r="C505" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -7943,7 +7940,7 @@
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -8042,7 +8039,7 @@
         <v>517</v>
       </c>
       <c r="C516" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
